--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T02:41:49+00:00</t>
+    <t>2025-10-16T07:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -676,10 +676,10 @@
 </t>
   </si>
   <si>
-    <t>Identification of the procedure</t>
-  </si>
-  <si>
-    <t>The specific procedure that is performed. Use text if the exact nature of the procedure cannot be coded (e.g. "Laparoscopic Appendectomy").</t>
+    <t>Procedure code</t>
+  </si>
+  <si>
+    <t>Code identifying the procedure or coordination activity.</t>
   </si>
   <si>
     <t>0..1 to account for primarily narrative only resources.</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:32:50+00:00</t>
+    <t>2025-10-16T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Procedure - Transport Coordination</t>
+    <t>RS Procedure - Transport Coordination</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>RS Procedure - Transport Coordination</t>
+    <t>Road Safety Procedure - Transport Coordination</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Procedure - Transport Coordination</t>
+    <t>RS Procedure - Transport Coordination</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="424">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:56:04+00:00</t>
+    <t>2025-10-28T15:04:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -760,6 +760,13 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;code value="referral-transport-coordination"/&gt;
+  &lt;display value="Transport coordination with receiving hospital"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -767,136 +774,6 @@
   </si>
   <si>
     <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Procedure.code.coding.id</t>
-  </si>
-  <si>
-    <t>Procedure.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Procedure.code.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>Procedure.code.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>Procedure.code.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>referral-transport-coordination</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>Procedure.code.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Transport coordination with receiving hospital</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>Procedure.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
   </si>
   <si>
     <t>Procedure.code.text</t>
@@ -1789,7 +1666,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN60"/>
+  <dimension ref="A1:AN53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4283,7 +4160,7 @@
         <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>78</v>
@@ -4322,7 +4199,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4340,21 +4217,21 @@
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4374,19 +4251,23 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4434,7 +4315,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4446,60 +4327,58 @@
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>134</v>
+        <v>252</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>135</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4536,51 +4415,51 @@
         <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4594,7 +4473,7 @@
         <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>78</v>
@@ -4603,20 +4482,18 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>102</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4625,7 +4502,7 @@
         <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>78</v>
@@ -4664,7 +4541,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4679,24 +4556,24 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>251</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4719,16 +4596,16 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4778,7 +4655,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4793,24 +4670,24 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4833,18 +4710,16 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>108</v>
+        <v>278</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>262</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4853,7 +4728,7 @@
         <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>78</v>
@@ -4892,7 +4767,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4910,21 +4785,21 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4947,18 +4822,16 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>270</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
@@ -4967,7 +4840,7 @@
         <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>78</v>
@@ -5006,7 +4879,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5024,21 +4897,21 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>274</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5049,7 +4922,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -5061,20 +4934,16 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5122,13 +4991,13 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
@@ -5137,24 +5006,24 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>283</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5174,23 +5043,19 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>221</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>285</v>
+        <v>222</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
       </c>
@@ -5238,7 +5103,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>289</v>
+        <v>224</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5250,58 +5115,60 @@
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>290</v>
+        <v>225</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>293</v>
+        <v>133</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>294</v>
+        <v>134</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>135</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5350,73 +5217,75 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>298</v>
+        <v>225</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>299</v>
+        <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>300</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>302</v>
+        <v>134</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5464,39 +5333,39 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>306</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>307</v>
+        <v>131</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>309</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5519,18 +5388,18 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>311</v>
+        <v>193</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5554,13 +5423,13 @@
         <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>78</v>
+        <v>306</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>78</v>
@@ -5578,7 +5447,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5593,24 +5462,24 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>317</v>
+        <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5618,7 +5487,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>88</v>
@@ -5633,16 +5502,18 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5690,10 +5561,10 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>88</v>
@@ -5705,24 +5576,24 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>78</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5742,19 +5613,21 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>320</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5802,7 +5675,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5820,10 +5693,10 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>329</v>
+        <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -5831,10 +5704,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5845,7 +5718,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5857,16 +5730,18 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
@@ -5914,13 +5789,13 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
@@ -5929,13 +5804,13 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -5943,10 +5818,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5957,7 +5832,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5966,18 +5841,20 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6002,13 +5879,13 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>78</v>
+        <v>337</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -6026,28 +5903,28 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>224</v>
+        <v>332</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>225</v>
+        <v>339</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6055,14 +5932,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6078,19 +5955,19 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>134</v>
+        <v>342</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>135</v>
+        <v>343</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>227</v>
+        <v>344</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>137</v>
+        <v>345</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6140,7 +6017,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>231</v>
+        <v>341</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6152,16 +6029,16 @@
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>346</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>225</v>
+        <v>339</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6169,14 +6046,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>339</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6189,26 +6066,24 @@
         <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6232,13 +6107,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>78</v>
+        <v>352</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6256,7 +6131,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6268,27 +6143,27 @@
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>131</v>
+        <v>353</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>78</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6314,15 +6189,15 @@
         <v>193</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6349,10 +6224,10 @@
         <v>197</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6370,7 +6245,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6385,24 +6260,24 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>349</v>
+        <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>351</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6410,10 +6285,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6422,21 +6297,21 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6484,13 +6359,13 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
@@ -6499,24 +6374,24 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>359</v>
+        <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>360</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6527,7 +6402,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6539,18 +6414,18 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>362</v>
+        <v>193</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6574,13 +6449,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>78</v>
+        <v>372</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6598,13 +6473,13 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
@@ -6616,7 +6491,7 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6627,10 +6502,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6641,7 +6516,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6650,20 +6525,20 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6712,13 +6587,13 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
@@ -6730,10 +6605,10 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>373</v>
+        <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6741,10 +6616,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6764,20 +6639,18 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>193</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -6805,10 +6678,10 @@
         <v>197</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -6826,7 +6699,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6841,13 +6714,13 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>380</v>
+        <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -6855,10 +6728,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6878,20 +6751,18 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -6940,7 +6811,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6955,24 +6826,24 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>78</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6992,20 +6863,18 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>193</v>
+        <v>289</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7030,31 +6899,31 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7072,13 +6941,13 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>396</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" hidden="true">
@@ -7106,20 +6975,18 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>398</v>
+        <v>222</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7144,13 +7011,13 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>401</v>
+        <v>78</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7168,7 +7035,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>397</v>
+        <v>224</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7180,13 +7047,13 @@
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>403</v>
+        <v>225</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -7197,14 +7064,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7223,16 +7090,16 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>405</v>
+        <v>134</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>406</v>
+        <v>135</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>407</v>
+        <v>227</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>408</v>
+        <v>137</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7282,7 +7149,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>404</v>
+        <v>231</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7294,13 +7161,13 @@
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>409</v>
+        <v>225</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7311,14 +7178,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7331,24 +7198,26 @@
         <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>411</v>
+        <v>298</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>412</v>
+        <v>299</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7372,13 +7241,13 @@
         <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>415</v>
+        <v>78</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
@@ -7396,7 +7265,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7408,13 +7277,13 @@
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>416</v>
+        <v>131</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7425,10 +7294,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7439,7 +7308,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7451,18 +7320,16 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>418</v>
+        <v>193</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>421</v>
-      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7486,13 +7353,13 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>78</v>
+        <v>403</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -7510,13 +7377,13 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
@@ -7528,7 +7395,7 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7539,10 +7406,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7550,10 +7417,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -7565,13 +7432,13 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>193</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7598,13 +7465,13 @@
         <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>425</v>
+        <v>78</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>426</v>
+        <v>78</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>78</v>
@@ -7622,13 +7489,13 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
@@ -7640,7 +7507,7 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7651,10 +7518,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7677,16 +7544,20 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
       </c>
@@ -7734,7 +7605,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7749,24 +7620,24 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>432</v>
+        <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>434</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7789,15 +7660,17 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>331</v>
+        <v>193</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -7822,13 +7695,13 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>78</v>
+        <v>421</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>78</v>
+        <v>422</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -7846,7 +7719,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7864,813 +7737,17 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="O60" s="2"/>
-      <c r="P60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN60" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN60">
+  <autoFilter ref="A1:AN53">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8680,7 +7757,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI59">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -761,9 +761,9 @@
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://snomed.info/sct"/&gt;
-  &lt;code value="referral-transport-coordination"/&gt;
-  &lt;display value="Transport coordination with receiving hospital"/&gt;
+  &lt;system value="http://www.roadsafetyph.doh.gov.ph/CodeSystem"/&gt;
+  &lt;code value="COORDINATIONDONE"/&gt;
+  &lt;display value="Was Transport Coordinated with Receiving Hospital?"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
   <si>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -762,6 +762,7 @@
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://www.roadsafetyph.doh.gov.ph/CodeSystem"/&gt;
+  &lt;version value="1"/&gt;
   &lt;code value="COORDINATIONDONE"/&gt;
   &lt;display value="Was Transport Coordinated with Receiving Hospital?"/&gt;
 &lt;/valueCoding&gt;</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-procedure-transport-coordination.xlsx
+++ b/StructureDefinition-rs-procedure-transport-coordination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
